--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>可应用在 自动化打包和发布；分服务和客户两个程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事情 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +640,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -236,7 +236,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">事情 </t>
+    <t>事情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +640,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,10 @@
   </si>
   <si>
     <t>事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">时间 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +644,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -236,11 +236,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">时间 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事情 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +644,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,10 +656,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -240,7 +240,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">事情 </t>
+    <t xml:space="preserve">事情  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +644,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t xml:space="preserve">事情  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务，开始实施部署。了解部署步骤。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -709,7 +713,18 @@
       <c r="A8" s="1">
         <v>43000</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -240,11 +240,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">事情  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务，开始实施部署。了解部署步骤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事情   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -723,7 +723,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -244,7 +244,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">事情   </t>
+    <t xml:space="preserve">事情  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,14 @@
   </si>
   <si>
     <t xml:space="preserve">事情  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker部署相关知识学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署docker。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +656,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -730,7 +738,18 @@
       <c r="A11" s="1">
         <v>43003</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -244,15 +244,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">事情  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docker部署相关知识学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部署docker。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事情   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +656,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -739,7 +739,7 @@
         <v>43003</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -748,7 +748,7 @@
         <v>0.7</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,7 +656,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,7 +755,18 @@
       <c r="A14" s="1">
         <v>43004</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,14 @@
   </si>
   <si>
     <t xml:space="preserve">事情   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker部署相关知识学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker完成部署gradle工具完成部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,13 +664,13 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -756,7 +764,7 @@
         <v>43004</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -772,7 +780,15 @@
       <c r="A17" s="1">
         <v>43005</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,14 @@
   </si>
   <si>
     <t>docker完成部署gradle工具完成部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIT服务器搭建、作文项目测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +672,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,7 +802,15 @@
       <c r="A20" s="1">
         <v>43006</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">事情   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docker部署相关知识学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +265,10 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事情    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +672,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -772,7 +772,7 @@
         <v>43004</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -789,7 +789,7 @@
         <v>43005</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -803,10 +803,10 @@
         <v>43006</v>
       </c>
       <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
         <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
       </c>
       <c r="D20" s="2">
         <v>0.5</v>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,15 +260,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事情    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GIT服务器搭建、作文项目测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">事情    </t>
+    <t>作文项目测试、魅族项目搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +680,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -803,10 +811,10 @@
         <v>43006</v>
       </c>
       <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
         <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
       </c>
       <c r="D20" s="2">
         <v>0.5</v>
@@ -816,7 +824,15 @@
       <c r="A23" s="1">
         <v>43007</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,7 +680,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -837,6 +837,15 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>43008</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,10 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文APP测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,15 +862,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
@@ -874,10 +878,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -893,7 +897,20 @@
       <c r="A2" s="1">
         <v>43017</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>43018</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>作文APP测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德地图测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +869,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -911,11 +915,21 @@
       <c r="A4" s="1">
         <v>43018</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -866,10 +866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -923,6 +923,20 @@
       </c>
       <c r="D4" s="2">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>43019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -866,10 +866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -937,6 +937,20 @@
       </c>
       <c r="D6" s="2">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>43020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,10 @@
   </si>
   <si>
     <t>高德地图测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德接口测试、作文调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -951,6 +955,20 @@
       </c>
       <c r="D8" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>43021</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,10 @@
   </si>
   <si>
     <t>高德接口测试、作文调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文测试jenkins学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,10 +874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,6 +973,20 @@
       </c>
       <c r="D10" s="2">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>43024</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,14 @@
   </si>
   <si>
     <t>作文测试jenkins学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文测试、写操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事情     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,10 +882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -987,6 +995,20 @@
       </c>
       <c r="D12" s="2">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>43024</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -885,7 +885,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,7 +999,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>43024</v>
+        <v>43025</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,10 @@
   </si>
   <si>
     <t xml:space="preserve">事情     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文操作手册。高德接口测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,10 +886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1009,6 +1013,20 @@
       </c>
       <c r="D14" s="2">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>43026</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,19 +292,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>作文测试、写操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事情     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文操作手册。高德接口测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
     <t>作文测试jenkins学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作文测试、写操作手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">事情     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作文操作手册。高德接口测试</t>
+    <t>高德测试、jenkins学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -905,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -992,7 +999,7 @@
         <v>43024</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1006,7 +1013,7 @@
         <v>43025</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1020,13 +1027,27 @@
         <v>43026</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>43027</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,14 @@
   </si>
   <si>
     <t>高德测试、jenkins学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文测试、jenkins学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,10 +901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -938,6 +946,11 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43018</v>
@@ -1048,6 +1061,20 @@
       </c>
       <c r="D18" s="2">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文测试、高德测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1075,6 +1079,20 @@
       </c>
       <c r="D20" s="2">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,10 @@
   </si>
   <si>
     <t>作文测试、高德测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">备注 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,10 +909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -933,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1093,6 +1097,20 @@
       </c>
       <c r="D22" s="2">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,10 @@
   </si>
   <si>
     <t xml:space="preserve">备注 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgres、mysql学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1111,6 +1115,20 @@
       </c>
       <c r="D24" s="2">
         <v>0.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -916,7 +916,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>43033</v>
+        <v>43034</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -913,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1129,6 +1129,20 @@
       </c>
       <c r="D26" s="2">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>43035</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,10 @@
   </si>
   <si>
     <t>postgres、mysql学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德操作手册、高德测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,10 +917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1143,6 +1147,20 @@
       </c>
       <c r="D28" s="2">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -920,7 +920,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1159,9 +1159,7 @@
       <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="2">
-        <v>0.8</v>
-      </c>
+      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,10 @@
   </si>
   <si>
     <t>高德操作手册、高德测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德操作手册、作文测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1159,7 +1163,21 @@
       <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>高德操作手册、作文测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1177,7 +1181,9 @@
       <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1191,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1223,6 +1229,12 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
     </row>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,10 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德操作手册、作文操作手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,12 +1240,27 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>43041</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1199,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,7 +1254,21 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>43042</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,10 @@
   </si>
   <si>
     <t>高德操作手册、作文操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文测试、作文操作手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1199,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1268,7 +1272,20 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>43045</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,10 @@
   </si>
   <si>
     <t>作文测试、作文操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1203,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,6 +1252,11 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43041</v>
@@ -1286,6 +1295,35 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>43046</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>43047</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,10 @@
   </si>
   <si>
     <t>作文测试、作文操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1210,7 +1214,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,7 +1327,9 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,7 +359,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>魅族环境本地搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1327,9 +1327,21 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>43048</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -355,11 +355,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魅族环境本地搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1336,7 +1336,7 @@
         <v>43048</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,11 +355,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>魅族环境本地搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>作文线上部署、作文操作手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,16 +1215,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" customWidth="1"/>
     <col min="3" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1258,7 +1262,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1336,12 +1340,26 @@
         <v>43048</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>43048</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -1218,12 +1218,12 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.375" customWidth="1"/>
     <col min="3" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>43048</v>
+        <v>43049</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>43049</v>
+        <v>43052</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>

--- a/交流管理/项目日报/徐明曦-每日要做的事.xlsx
+++ b/交流管理/项目日报/徐明曦-每日要做的事.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,10 @@
   </si>
   <si>
     <t>作文线上部署、作文操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1218,7 +1222,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1258,6 +1262,9 @@
       </c>
       <c r="D2" s="2">
         <v>0.85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
